--- a/analisis.xlsx
+++ b/analisis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>Оборудование</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>Месяц</t>
+  </si>
+  <si>
+    <t>Год</t>
+  </si>
+  <si>
+    <t>КЭО15</t>
+  </si>
+  <si>
+    <t>ТЦ</t>
+  </si>
+  <si>
+    <t>Рукав</t>
+  </si>
+  <si>
+    <t>Утечка</t>
+  </si>
+  <si>
+    <t>В-5</t>
   </si>
 </sst>
 </file>
@@ -399,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -413,7 +431,7 @@
     <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +447,11 @@
       <c r="E1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -446,8 +467,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -463,8 +487,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -480,8 +507,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -496,6 +526,149 @@
       </c>
       <c r="E5">
         <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
